--- a/data/trans_camb/DC-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/DC-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.41024537461771</v>
+        <v>-15.79114344167797</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.16260350242004</v>
+        <v>-15.08809966542912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.626468499409887</v>
+        <v>3.247416388339166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.513535616738677</v>
+        <v>-8.584753564571647</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.76469351853332</v>
+        <v>-13.08021932867468</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.69380483367917</v>
+        <v>12.93252960949943</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-11.76533513674063</v>
+        <v>-11.46006833646253</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-13.36311184694891</v>
+        <v>-13.70160750521535</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.670130927048493</v>
+        <v>9.85434935370809</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-7.554892897869236</v>
+        <v>-7.68695419381099</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.242317915872151</v>
+        <v>-7.254885264622647</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.5586480339414</v>
+        <v>14.49743005386349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.8734722764883265</v>
+        <v>-0.6492716516811522</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-5.056089763466034</v>
+        <v>-5.490037267984688</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.72309869128241</v>
+        <v>22.25182074053327</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-6.033797443374669</v>
+        <v>-5.607750610808266</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-7.767211470949445</v>
+        <v>-8.24977463506838</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.60670481570237</v>
+        <v>17.10823656319133</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6039199725166114</v>
+        <v>-0.6118967952031296</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5945700448083303</v>
+        <v>-0.5907021770917958</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1447507079061121</v>
+        <v>0.1303662702433356</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.262101469638084</v>
+        <v>-0.2662985938532495</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3955894469375398</v>
+        <v>-0.3957185384183142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3848210252388725</v>
+        <v>0.3936954978413874</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3979700939991168</v>
+        <v>-0.3935031371270748</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4602521519903024</v>
+        <v>-0.4702200342255498</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3281149813328755</v>
+        <v>0.3362013084963576</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3729636970993749</v>
+        <v>-0.3776798912400731</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3627483770743383</v>
+        <v>-0.3577282546138164</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7319653702928913</v>
+        <v>0.7102192457726674</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.03073915501299435</v>
+        <v>-0.02870060286332396</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1807387521451098</v>
+        <v>-0.1914737758463792</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7543771629806449</v>
+        <v>0.7773773708386281</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2279970768972952</v>
+        <v>-0.2170907903485856</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3001508150574383</v>
+        <v>-0.3131611032300258</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6363907358516596</v>
+        <v>0.6585218537533126</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-8.153773630798018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.714892179399381</v>
+        <v>3.714892179399387</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-4.118229282553287</v>
@@ -869,7 +869,7 @@
         <v>-10.53763766952148</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.109585433326426</v>
+        <v>8.109585433326421</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-5.298777839119021</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.49118295831943</v>
+        <v>-10.51561317695037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.2575481677777</v>
+        <v>-11.28040264209545</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02106487899265007</v>
+        <v>-0.4688016943922707</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.874901184571384</v>
+        <v>-7.777773989458662</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-14.28005066309751</v>
+        <v>-14.16824705101457</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.64595594866611</v>
+        <v>4.478725655282803</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-7.73669289575911</v>
+        <v>-7.596152157805955</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.37748116507743</v>
+        <v>-11.54257758202836</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.073516308740809</v>
+        <v>4.154667968073427</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.179230414287665</v>
+        <v>-4.373695088769726</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.335762917152797</v>
+        <v>-5.24045719130719</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.011295207565003</v>
+        <v>7.083523237956634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.1594119887302468</v>
+        <v>-0.443856862150326</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-6.84544278076509</v>
+        <v>-7.142429558827954</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.66135288917804</v>
+        <v>12.42852439912552</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-2.910187879515444</v>
+        <v>-2.789983365925084</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-6.406701831529283</v>
+        <v>-6.663042048781552</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.304862452970584</v>
+        <v>9.213231706190522</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4554988162910479</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2075270993511356</v>
+        <v>0.2075270993511359</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1396568870559829</v>
@@ -974,7 +974,7 @@
         <v>-0.3573510780674194</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2750112680056343</v>
+        <v>0.2750112680056341</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2241517234316899</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5314620913520023</v>
+        <v>-0.5266178025039657</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5698749966633352</v>
+        <v>-0.5755634820291744</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.003026595954201426</v>
+        <v>-0.02137059049193641</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2568224140512697</v>
+        <v>-0.2548672893416656</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4540744942222458</v>
+        <v>-0.4495940612507988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1464489604567269</v>
+        <v>0.1420572696752361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3106933096550588</v>
+        <v>-0.3059619908076997</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4618909707803255</v>
+        <v>-0.4613025279192112</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1635527611379249</v>
+        <v>0.166251603968874</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2540016822292747</v>
+        <v>-0.2514953879378227</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3150422307257688</v>
+        <v>-0.3117443649429946</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.410053163946288</v>
+        <v>0.4331090503393796</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.007947686989758541</v>
+        <v>-0.01822834876217156</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2505771754202314</v>
+        <v>-0.2548538241149559</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4307489381504557</v>
+        <v>0.4657024732870617</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1281099100468091</v>
+        <v>-0.1244171344214639</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2857106847501303</v>
+        <v>-0.2955210175312742</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4151965666977172</v>
+        <v>0.4133268609749556</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-6.92760948755703</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.005746141009238</v>
+        <v>3.005746141009241</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.014876183956904</v>
@@ -1083,7 +1083,7 @@
         <v>-8.801817103624879</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>12.05401425735353</v>
+        <v>12.05401425735354</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.761538982008843</v>
@@ -1092,7 +1092,7 @@
         <v>-7.717602819103058</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.791498908902661</v>
+        <v>7.791498908902672</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.008255273936379</v>
+        <v>-7.102343352231203</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.654302579384172</v>
+        <v>-9.668543456193243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.0818086072187194</v>
+        <v>-0.08493957112233788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.726857576161065</v>
+        <v>-5.438922857734909</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-12.62797893732308</v>
+        <v>-12.28071892873163</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.553700175848194</v>
+        <v>8.329553803237731</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.131384472569046</v>
+        <v>-5.221835063095809</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.934347034190278</v>
+        <v>-10.03673204346929</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.24938184127795</v>
+        <v>5.192677410217614</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.256443817294761</v>
+        <v>-1.206113204655926</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.201111676346312</v>
+        <v>-4.071163308504114</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.376867038927377</v>
+        <v>6.131172497824414</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.832779728914386</v>
+        <v>2.105106744655833</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-5.156421406026235</v>
+        <v>-4.731470694683887</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.71210196305318</v>
+        <v>15.7927588768709</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.295904929697366</v>
+        <v>-0.2465935679637892</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-5.420592193491824</v>
+        <v>-5.423755695251902</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.05740089138065</v>
+        <v>10.28140294925185</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4909709976648878</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2130221376117289</v>
+        <v>0.2130221376117291</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.08907590744030751</v>
@@ -1188,7 +1188,7 @@
         <v>-0.3891206079419194</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.532897389339104</v>
+        <v>0.5328973893391042</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1525025797017109</v>
@@ -1197,7 +1197,7 @@
         <v>-0.4261950842244688</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4302759045198647</v>
+        <v>0.4302759045198654</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4496024814843935</v>
+        <v>-0.4571021689410933</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6187777197046607</v>
+        <v>-0.6311690236526837</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.004841699019566812</v>
+        <v>-0.005372086496503047</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2394128412408941</v>
+        <v>-0.2225655376039251</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5185808623623462</v>
+        <v>-0.5053250506903699</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3532248275982247</v>
+        <v>0.3430155672688083</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2652817101873496</v>
+        <v>-0.2704413000927649</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5218061107118034</v>
+        <v>-0.5238873326715177</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2742798486435276</v>
+        <v>0.2677274652215151</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.09050935725427178</v>
+        <v>-0.09301876467550059</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3198723719788384</v>
+        <v>-0.3046522602194935</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.519536669906376</v>
+        <v>0.498534006104057</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.08609959684154543</v>
+        <v>0.1041572919663257</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2494457399797284</v>
+        <v>-0.2210831750737464</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7861269127688948</v>
+        <v>0.76550826885103</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01833737357060256</v>
+        <v>-0.01499467732255511</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3122165010818228</v>
+        <v>-0.31439257258965</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5932664980171667</v>
+        <v>0.6040171852824091</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-9.25947961658885</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.68270856210981</v>
+        <v>3.682708562109807</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-10.21255150342324</v>
@@ -1306,7 +1306,7 @@
         <v>-11.00956455246492</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.385282853620097</v>
+        <v>6.385282853620092</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-13.2032245509598</v>
+        <v>-12.98445550291135</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.098325544735</v>
+        <v>-13.64622143547725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.053806889212892</v>
+        <v>-0.5403294159374183</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-16.56708954968778</v>
+        <v>-16.78812772865782</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-20.88243443541893</v>
+        <v>-20.852460035423</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.991370382343426</v>
+        <v>2.43830394339342</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-12.82497143080587</v>
+        <v>-12.66026573530404</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-14.73065775544715</v>
+        <v>-14.57434277937752</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.615006720763235</v>
+        <v>2.454606934565803</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.934423796543327</v>
+        <v>-4.427374993409767</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-5.10723059762739</v>
+        <v>-4.849385046518247</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.799960084559018</v>
+        <v>8.330944853604265</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.595935070735552</v>
+        <v>-3.72946897973639</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-8.641590842855672</v>
+        <v>-8.552094295566331</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.41603674948916</v>
+        <v>13.86388800622745</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-5.070388074414986</v>
+        <v>-5.228021830566985</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-7.59112785578523</v>
+        <v>-7.262941163940038</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.15900402130371</v>
+        <v>9.727955994976529</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.5351959340387769</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2128597642960261</v>
+        <v>0.2128597642960259</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.329988417727606</v>
@@ -1411,7 +1411,7 @@
         <v>-0.4744106300046251</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2751467641529406</v>
+        <v>0.2751467641529404</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6519763831049759</v>
+        <v>-0.6440472513049519</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7033813642443316</v>
+        <v>-0.6809185406721286</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05449015054551697</v>
+        <v>-0.02774387525743887</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4844751679865367</v>
+        <v>-0.4780153883190152</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5974420217437297</v>
+        <v>-0.6023208471241496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05588766185230657</v>
+        <v>0.0687868995965135</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5107932154242946</v>
+        <v>-0.4992256819644509</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5770986143121811</v>
+        <v>-0.5748567132170401</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.09106280353698872</v>
+        <v>0.09484977122729464</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2588224796768721</v>
+        <v>-0.2797346588353894</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3238498981199702</v>
+        <v>-0.3231183068776823</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5324725948987794</v>
+        <v>0.5782929016284153</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1298931453125869</v>
+        <v>-0.1342856343982238</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3110672462761984</v>
+        <v>-0.3126784267109067</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5014653465019506</v>
+        <v>0.5142301703639559</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.242960518073024</v>
+        <v>-0.2463808760631092</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3471992076746473</v>
+        <v>-0.3423991632991159</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4757212131204313</v>
+        <v>0.4668562478288427</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-7.894387789978714</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.167618110493154</v>
+        <v>4.167618110493152</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-4.097836662514709</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.648916891798562</v>
+        <v>-8.715082402257053</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.424913036992431</v>
+        <v>-9.532850517341181</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.348768872609163</v>
+        <v>2.382613616220048</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.253857842972075</v>
+        <v>-6.01628676004777</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.58834192159203</v>
+        <v>-11.60140771897487</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.846146722334922</v>
+        <v>8.782693596324796</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-7.034082205597632</v>
+        <v>-6.915126660079498</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.02213008259091</v>
+        <v>-10.06252805616838</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.208232622516286</v>
+        <v>6.255703745956454</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.146835765636987</v>
+        <v>-5.369799086616028</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-6.14858840765221</v>
+        <v>-6.352230367791066</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.160841216441886</v>
+        <v>6.365634054869353</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.946810029811723</v>
+        <v>-1.874517987675943</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-7.605525142439022</v>
+        <v>-7.456886420641993</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.09955330591958</v>
+        <v>12.90439094155654</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-4.077220145460542</v>
+        <v>-4.035374617643658</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-7.327410803423855</v>
+        <v>-7.340128071758017</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.118851294931428</v>
+        <v>9.126928157998744</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.4541350558452375</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.239747721254967</v>
+        <v>0.2397477212549669</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1472234486188216</v>
@@ -1616,7 +1616,7 @@
         <v>-0.3426849013096215</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3924932875338659</v>
+        <v>0.3924932875338661</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2425201114162649</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4731110364971013</v>
+        <v>-0.477509765816469</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5159302556329822</v>
+        <v>-0.5232948355928443</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1253529250673708</v>
+        <v>0.1375617255214859</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2174389521522522</v>
+        <v>-0.2077130287155385</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4019118364880832</v>
+        <v>-0.4030118198686705</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3050831747915713</v>
+        <v>0.2991838159273523</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2978947259573974</v>
+        <v>-0.2975836043680487</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4281280971752185</v>
+        <v>-0.4288026922378941</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2600352974064046</v>
+        <v>0.2604202607525083</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3121347836552108</v>
+        <v>-0.3266894099099664</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3760748351166001</v>
+        <v>-0.3844092358951374</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3763233481928357</v>
+        <v>0.3901576867563727</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.07241364097654551</v>
+        <v>-0.06927008492038843</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2815775416564436</v>
+        <v>-0.2796370399789462</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4859052923230051</v>
+        <v>0.4853996868117494</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1847688653005127</v>
+        <v>-0.1867393164597215</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3302209209212635</v>
+        <v>-0.3333159118845154</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4163981751379883</v>
+        <v>0.415828022749159</v>
       </c>
     </row>
     <row r="34">
